--- a/ESPUMOSO.xlsx
+++ b/ESPUMOSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C125B33-FDC1-453F-8CF2-DB732EE30E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2E27879-1F84-4580-82A9-C04C7C01BE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1065,7 +1052,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1125,36 +1112,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1193,14 +1156,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1245,7 +1203,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{9F0472EC-E686-42AC-B875-2EBEE6F28ACE}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{B6DB7148-F579-447A-869A-D895ADB5ECD2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1275,10 +1233,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53CC2D93-E221-4ECE-B076-8CAE0ABCE506}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8946CAEE-B35F-4A55-A3DF-88762BCD257A}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,7 +1274,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{573C4242-492D-4694-986D-07A0C09F019E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{638DA13A-A911-4F93-B6BB-29F17316DB5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1379,7 +1337,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F34F9F80-2961-4476-A63F-541DD726D26E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A243A6-CCE1-4067-B972-64916C9D9A69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1398,7 +1356,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2C0B87-4165-33B0-9AF4-BCAE62DC7EAD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2C3B0FE-A55B-67F6-DCDF-B0B8E3C684D4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1447,7 +1405,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE2F76B-5158-B2CF-A26D-D1C54CEEF640}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8C3676-C0BA-5FAD-E571-ADB73A41A73D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1466,7 +1424,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F19C16-4C7F-F7F9-881B-C822F7DDDDCB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60AE7AB-4F34-AA03-61E7-33A7714AAE3D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1497,7 +1455,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631C47DF-D7B7-1C90-2DE4-A8B0DD2609BD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92382E6A-4245-C85B-B62A-02331AEA7D03}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1528,7 +1486,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038034D0-4796-3893-7C7B-C1A9BB6A9606}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98C86E3-EA24-AF51-B085-DD2E8E43019E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1571,7 +1529,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48230C3A-CFC5-4B18-A5E1-C75C6BE5FFFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C1697E9-594D-4873-83D6-D6775E710988}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1609,7 +1567,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4411DFBF-80E4-4A29-AA43-D4BB58BE2007}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{770CEEAA-B88D-49BC-A892-C99E38522441}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +1610,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46F0C6EF-6C7D-4DA0-A6CE-12071BE61524}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E52B65-F0CD-4445-8BCA-200CDC8FA597}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,7 +1923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90B44C9-EA24-4610-B7B6-52E4C5DBEE18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0A09CC-6749-4DE4-89A0-1E3A6FCF0A3B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1977,98 +1935,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="36"/>
-    <col min="6" max="6" width="2" style="36" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="36" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="36"/>
+    <col min="1" max="5" width="12.5703125" style="33"/>
+    <col min="6" max="6" width="2" style="33" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="35"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="35"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="35"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="35"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="35"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="35"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="35"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="35"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="35"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="35"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="35"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="35"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="35"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="35"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="35"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="35"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="35"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="35"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="35"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="35"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="35"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="35"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="35"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="35"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="35"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="35"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="35"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="35"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="35"/>
+      <c r="F29" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5334,19 +5292,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5369,46 +5327,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>276</v>
       </c>
     </row>
@@ -5433,54 +5391,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5491,17 +5450,17 @@
       <c r="B2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>45931</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="24">
         <v>5690</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="24">
         <v>751</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -5516,16 +5475,16 @@
       <c r="K2" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="25" t="s">
         <v>297</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="26" t="s">
         <v>298</v>
       </c>
     </row>
@@ -5556,25 +5515,24 @@
       <c r="B1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="31">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="28">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="31">
         <v>6</v>
       </c>
-      <c r="F1" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="34">
-        <v>6</v>
-      </c>
-      <c r="C2" s="32">
+      <c r="C2" s="29">
         <v>3.9677291363576252E-4</v>
       </c>
     </row>

--- a/ESPUMOSO.xlsx
+++ b/ESPUMOSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2E27879-1F84-4580-82A9-C04C7C01BE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4946AEF5-00F7-40B5-AE7A-F6ACDAAB2DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1203,7 +1203,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{B6DB7148-F579-447A-869A-D895ADB5ECD2}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{4E6FEDD0-4B4B-4CB0-8745-9192E74F7330}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1233,10 +1233,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8946CAEE-B35F-4A55-A3DF-88762BCD257A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F8E757-6EC3-40DB-9823-23123CFC260E}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1274,7 +1274,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{638DA13A-A911-4F93-B6BB-29F17316DB5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39405A6-4E56-4574-A79B-85E5847EFC5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1337,7 +1337,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A243A6-CCE1-4067-B972-64916C9D9A69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D81292-F9E5-487B-9B3E-E966F991E571}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1356,7 +1356,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2C3B0FE-A55B-67F6-DCDF-B0B8E3C684D4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBFD756E-3B2A-2277-8110-A4632A000C87}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1405,7 +1405,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8C3676-C0BA-5FAD-E571-ADB73A41A73D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E04A83-6782-AE97-ACB3-A9BB7D8974CA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1424,7 +1424,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60AE7AB-4F34-AA03-61E7-33A7714AAE3D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96DBB594-B8E2-2313-E8FB-DF9F9A9356DE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1455,7 +1455,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92382E6A-4245-C85B-B62A-02331AEA7D03}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA29537-32EC-8D45-6C9D-139AC1B50AD2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1486,7 +1486,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98C86E3-EA24-AF51-B085-DD2E8E43019E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DD08D81-DB18-A807-7C77-FD3C145EE83D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1529,7 +1529,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C1697E9-594D-4873-83D6-D6775E710988}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A768F7FE-9420-44A0-B13F-4015A2991873}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1567,7 +1567,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{770CEEAA-B88D-49BC-A892-C99E38522441}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97E52CEB-357E-4DD5-B618-70A01B3209EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1610,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E52B65-F0CD-4445-8BCA-200CDC8FA597}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00A1D07-CD04-4FC7-A881-D6C6671D8C1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,7 +1923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0A09CC-6749-4DE4-89A0-1E3A6FCF0A3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A883177D-29CE-4E3F-B870-03987D13FDDB}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/ESPUMOSO.xlsx
+++ b/ESPUMOSO.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4946AEF5-00F7-40B5-AE7A-F6ACDAAB2DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3B44A1C-3C33-46C7-90F2-79D5D1B9C008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="299">
   <si>
     <t>COMARCA</t>
   </si>
@@ -923,15 +922,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>ESPUMOSO</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1183,27 +1173,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{4E6FEDD0-4B4B-4CB0-8745-9192E74F7330}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{7B742967-4C9F-43DD-87F7-1CB895C97018}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1233,10 +1208,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F8E757-6EC3-40DB-9823-23123CFC260E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE01497-CCEB-4896-9EBC-49FC08DF4E6E}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1274,7 +1249,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39405A6-4E56-4574-A79B-85E5847EFC5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D743CD2F-4C72-48BB-B3D3-E9323BE5408E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1337,7 +1312,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D81292-F9E5-487B-9B3E-E966F991E571}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B21529D-7A37-43C0-A201-6C49E9CBCDE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1356,7 +1331,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBFD756E-3B2A-2277-8110-A4632A000C87}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BB30229-B341-E4B2-80DB-FA27A6F2D912}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1405,7 +1380,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E04A83-6782-AE97-ACB3-A9BB7D8974CA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9E0AF3-9F7C-01F5-F56E-2A1CA8D62D66}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1424,7 +1399,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96DBB594-B8E2-2313-E8FB-DF9F9A9356DE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D8E619-B8FD-6FD8-8DA2-2190C94B18FB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1455,7 +1430,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA29537-32EC-8D45-6C9D-139AC1B50AD2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F936877-A5D1-D124-DD51-D5C10787F32D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1486,7 +1461,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DD08D81-DB18-A807-7C77-FD3C145EE83D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064D59BE-4F62-47D3-B975-09E257A11952}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1529,7 +1504,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A768F7FE-9420-44A0-B13F-4015A2991873}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{871BD800-A10B-4ED3-BD0F-90ECC8DBA313}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1567,7 +1542,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97E52CEB-357E-4DD5-B618-70A01B3209EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF03B74A-256F-4F5B-8EB4-CE3DC0A1A416}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1585,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00A1D07-CD04-4FC7-A881-D6C6671D8C1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53946EE6-A72A-4712-8CB6-2CD44D87125D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,7 +1898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A883177D-29CE-4E3F-B870-03987D13FDDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52E3207-C4CA-4AB6-9D31-9DB190C139A0}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1935,98 +1910,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="33"/>
-    <col min="6" max="6" width="2" style="33" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="33"/>
+    <col min="1" max="5" width="12.5703125" style="28"/>
+    <col min="6" max="6" width="2" style="28" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="28" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="32"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="32"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="32"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="32"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="32"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="32"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="32"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="32"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="32"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="32"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="32"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="32"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="32"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="32"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="32"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="32"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="32"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="32"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="32"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="32"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="32"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="32"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="32"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="32"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="32"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="32"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="32"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="32"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="32"/>
+      <c r="F29" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5491,52 +5466,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="E1" s="28">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="31">
-        <v>6</v>
-      </c>
-      <c r="C2" s="29">
-        <v>3.9677291363576252E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/ESPUMOSO.xlsx
+++ b/ESPUMOSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3B44A1C-3C33-46C7-90F2-79D5D1B9C008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DCC52D2-09A3-424D-903C-F6B68E1DC305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1178,7 +1178,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{7B742967-4C9F-43DD-87F7-1CB895C97018}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{E345A841-5F26-45C1-A5F4-261E39017DD8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1208,10 +1208,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE01497-CCEB-4896-9EBC-49FC08DF4E6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE9FEC17-142A-4026-B240-E25D71959E74}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1249,7 +1249,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D743CD2F-4C72-48BB-B3D3-E9323BE5408E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F749C009-E274-4D44-A1E7-68230C9C1369}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1312,7 +1312,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B21529D-7A37-43C0-A201-6C49E9CBCDE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2200C2C7-1470-43C6-A7BA-FE6612F62059}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,7 +1331,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BB30229-B341-E4B2-80DB-FA27A6F2D912}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E05E4098-CA59-D9A7-F522-C14AD03C608E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1380,7 +1380,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9E0AF3-9F7C-01F5-F56E-2A1CA8D62D66}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9396E077-C49E-3D6C-78B3-CF5F5F60D0AB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1399,7 +1399,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D8E619-B8FD-6FD8-8DA2-2190C94B18FB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19CB685E-E546-7B86-8545-66557B9C07D4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1430,7 +1430,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F936877-A5D1-D124-DD51-D5C10787F32D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ABE1B86-895B-2391-9841-DC7E1E73EDEF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1461,7 +1461,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064D59BE-4F62-47D3-B975-09E257A11952}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC9BA74-9B0B-6865-1BAF-3A4B1A5DB5DC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1504,7 +1504,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{871BD800-A10B-4ED3-BD0F-90ECC8DBA313}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86474C9D-36B6-4EE4-A0CE-D07B95D70849}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1542,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF03B74A-256F-4F5B-8EB4-CE3DC0A1A416}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60CEA004-EA9A-4ED9-8644-384294962446}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1567,50 +1567,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53946EE6-A72A-4712-8CB6-2CD44D87125D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1898,7 +1854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52E3207-C4CA-4AB6-9D31-9DB190C139A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF6926F-9E9A-4B4E-936C-FD5FC50A1175}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
